--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-71509.46940734852</v>
+        <v>-73947.94250709498</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>114.1389925001498</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>203.7836539801471</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>133.3165861850446</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>250.84333358844</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773041</v>
       </c>
     </row>
     <row r="4">
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>88.58584547962731</v>
+        <v>211.1292385528625</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>297.8304163214466</v>
+        <v>353.6834162611657</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1029,7 +1029,7 @@
         <v>190.7165703189231</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969275</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>139.7913471991652</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>29.12320538581789</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>4.845158429544062</v>
       </c>
       <c r="U8" t="n">
-        <v>218.8748435506832</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>72.08802744677224</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>210.7248234571221</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>110.0177171766865</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1768,10 +1768,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>175.8628696806981</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>234.2545358525715</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819354</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>77.7335965913727</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>32.27552175740657</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2081,10 +2081,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710086</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>113.4877306469558</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671011806</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>146.185049953106</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>41.74133133758844</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710094</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282045</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784709</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2956,16 +2956,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>3.475606507924119</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428166</v>
+        <v>83.06560892428257</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710103</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,10 +3424,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>178.8076944857623</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>108.2950343703276</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703276</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2093.940164485852</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C2" t="n">
-        <v>1724.97764754544</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D2" t="n">
-        <v>1366.711948938689</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>980.9236963404451</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>569.9377915508376</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3190.942603240438</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609171</v>
+        <v>2937.412126514274</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.605821609171</v>
+        <v>2684.035021879487</v>
       </c>
       <c r="W2" t="n">
-        <v>2972.837166339056</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="X2" t="n">
-        <v>2599.371408077976</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="Y2" t="n">
-        <v>2209.232076102165</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
         <v>618.1564155387305</v>
@@ -4395,52 +4395,52 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,7 +4449,7 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501177</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181845</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V4" t="n">
-        <v>666.2025176122977</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W4" t="n">
-        <v>376.7853475753371</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="X4" t="n">
-        <v>287.3046955757135</v>
+        <v>163.837793613838</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1891.353293732295</v>
+        <v>1514.348043559525</v>
       </c>
       <c r="C5" t="n">
-        <v>1522.390776791883</v>
+        <v>1514.348043559525</v>
       </c>
       <c r="D5" t="n">
-        <v>1164.125078185133</v>
+        <v>1156.082344952775</v>
       </c>
       <c r="E5" t="n">
-        <v>778.3368255868886</v>
+        <v>770.2940923545304</v>
       </c>
       <c r="F5" t="n">
-        <v>367.350920797281</v>
+        <v>763.348591605327</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4607,10 +4607,10 @@
         <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2277.953133796417</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>2277.953133796417</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>354.6054449393516</v>
+        <v>478.9911633238872</v>
       </c>
       <c r="C7" t="n">
-        <v>354.6054449393516</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="D7" t="n">
-        <v>354.6054449393516</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E7" t="n">
-        <v>354.6054449393516</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F7" t="n">
-        <v>207.7154974414413</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G7" t="n">
-        <v>207.7154974414413</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757124</v>
+        <v>891.4696266405911</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757124</v>
+        <v>699.7837424674174</v>
       </c>
       <c r="T7" t="n">
-        <v>609.2899331452385</v>
+        <v>699.7837424674174</v>
       </c>
       <c r="U7" t="n">
-        <v>609.2899331452385</v>
+        <v>699.7837424674174</v>
       </c>
       <c r="V7" t="n">
-        <v>354.6054449393516</v>
+        <v>699.7837424674174</v>
       </c>
       <c r="W7" t="n">
-        <v>354.6054449393516</v>
+        <v>699.7837424674174</v>
       </c>
       <c r="X7" t="n">
-        <v>354.6054449393516</v>
+        <v>699.7837424674174</v>
       </c>
       <c r="Y7" t="n">
-        <v>354.6054449393516</v>
+        <v>478.9911633238872</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678286</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3320.711722185389</v>
       </c>
       <c r="U8" t="n">
-        <v>3104.520121052924</v>
+        <v>3067.181245459225</v>
       </c>
       <c r="V8" t="n">
-        <v>3104.520121052924</v>
+        <v>2736.118358115654</v>
       </c>
       <c r="W8" t="n">
-        <v>2751.75146578281</v>
+        <v>2736.118358115654</v>
       </c>
       <c r="X8" t="n">
-        <v>2378.28570752173</v>
+        <v>2736.118358115654</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>2345.979026139843</v>
       </c>
     </row>
     <row r="9">
@@ -4878,10 +4878,10 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031482</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962283</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372932</v>
@@ -4984,28 +4984,28 @@
         <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181845</v>
+        <v>576.3720603698256</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181845</v>
+        <v>576.3720603698256</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181845</v>
+        <v>576.3720603698256</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181845</v>
+        <v>363.5187033424295</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,61 +5027,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191926</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349515</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061504</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.043492616111</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400721</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400721</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5291,37 +5291,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703778</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969299</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>555.8158034133954</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C16" t="n">
-        <v>555.8158034133954</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2019.423283183833</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>1730.34805652803</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V16" t="n">
-        <v>1475.663568322143</v>
+        <v>1701.665648661974</v>
       </c>
       <c r="W16" t="n">
-        <v>1186.246398285183</v>
+        <v>1412.248478625014</v>
       </c>
       <c r="X16" t="n">
-        <v>958.2568473871653</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="Y16" t="n">
-        <v>737.4642682436352</v>
+        <v>963.4663485834661</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5543,10 +5543,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5592,22 +5592,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.2707707770323</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C19" t="n">
-        <v>634.3345878491255</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D19" t="n">
-        <v>634.3345878491255</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E19" t="n">
-        <v>486.4214942667323</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>339.531546768822</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>172.3354474837019</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5680,7 +5680,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2414.361546451568</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>2125.286319795766</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1870.601831589879</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.70136564882</v>
+        <v>1581.184661552918</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>1353.195110654901</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072721</v>
+        <v>1132.402531511371</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
         <v>1948.813509611464</v>
@@ -5738,19 +5738,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075811</v>
@@ -5768,34 +5768,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>801.6605733532801</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>632.7243904253733</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253733</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5917,7 +5917,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192512</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111727</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="24">
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468476</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589159</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143766</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876702</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>580.8993044876702</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>430.7826650753344</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>282.8695714929413</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>135.9796239950309</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>135.9796239950309</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>135.9796239950309</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K25" t="n">
         <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>983.34034846144</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179099</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6218,58 +6218,58 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L27" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6391,7 +6391,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570818</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6455,55 +6455,55 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6628,7 +6628,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570818</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>2040.996070613739</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6677,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1520.445529061503</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2072.35525930079</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2495.978408795858</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,25 +6923,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.55866301478</v>
@@ -6950,37 +6950,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2016.448712673667</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1727.373486017864</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1472.688997811978</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1183.271827775017</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>955.2822768769995</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>734.4896977334694</v>
       </c>
     </row>
     <row r="38">
@@ -7163,22 +7163,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7190,34 +7190,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745235</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338367</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="41">
@@ -7400,25 +7400,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355936</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438179</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7795,7 +7795,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>207.1380716733063</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,19 +22598,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>70.60138395457552</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>14.58041683617463</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986265</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>36.41624546988265</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.246821098626</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>41.54258064659018</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>17.88310747125652</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>62.56111625484701</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>185.1299285698817</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.34424953498153</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.615473018211</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,10 +24178,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>71.22040037418225</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>39.52450498097706</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S25" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>125.5054897610396</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.70886788132</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194223</v>
+        <v>57.22910392194129</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,10 +25312,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>38.59775584152592</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194129</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194129</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26035,10 +26035,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26314,40 +26314,40 @@
         <v>298593.7657794693</v>
       </c>
       <c r="C2" t="n">
-        <v>328416.7079457132</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="D2" t="n">
-        <v>328416.7079457133</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="E2" t="n">
+        <v>322858.6398760025</v>
+      </c>
+      <c r="F2" t="n">
         <v>322858.6398760026</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>322858.6398760025</v>
+      </c>
+      <c r="H2" t="n">
         <v>322858.6398760024</v>
       </c>
-      <c r="G2" t="n">
-        <v>322858.6398760026</v>
-      </c>
-      <c r="H2" t="n">
-        <v>322858.6398760026</v>
-      </c>
       <c r="I2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="J2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760025</v>
       </c>
       <c r="K2" t="n">
         <v>322858.6398760025</v>
       </c>
       <c r="L2" t="n">
+        <v>322858.6398760024</v>
+      </c>
+      <c r="M2" t="n">
         <v>322858.6398760025</v>
       </c>
-      <c r="M2" t="n">
-        <v>322858.6398760024</v>
-      </c>
       <c r="N2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760023</v>
       </c>
       <c r="O2" t="n">
         <v>322858.6398760024</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073558</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.100233243458205e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551201</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51041.86039138716</v>
+        <v>51041.86039138707</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26439,19 +26439,19 @@
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186728</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186728</v>
       </c>
       <c r="L4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
+        <v>14826.69604186724</v>
+      </c>
+      <c r="N4" t="n">
         <v>14826.69604186736</v>
-      </c>
-      <c r="N4" t="n">
-        <v>14826.6960418674</v>
       </c>
       <c r="O4" t="n">
         <v>14826.69604186737</v>
@@ -26479,28 +26479,28 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="L5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1189126.780900904</v>
+        <v>-1189313.174289443</v>
       </c>
       <c r="C6" t="n">
-        <v>126886.0232802674</v>
+        <v>126886.0232802676</v>
       </c>
       <c r="D6" t="n">
-        <v>126886.0232802675</v>
+        <v>126886.0232802677</v>
       </c>
       <c r="E6" t="n">
-        <v>-118503.0477971277</v>
+        <v>-118537.7857225632</v>
       </c>
       <c r="F6" t="n">
-        <v>206909.4140102279</v>
+        <v>206874.6760847921</v>
       </c>
       <c r="G6" t="n">
-        <v>206909.4140102283</v>
+        <v>206874.6760847923</v>
       </c>
       <c r="H6" t="n">
-        <v>206909.4140102281</v>
+        <v>206874.6760847922</v>
       </c>
       <c r="I6" t="n">
-        <v>206909.4140102281</v>
+        <v>206874.6760847922</v>
       </c>
       <c r="J6" t="n">
-        <v>-10621.78838704943</v>
+        <v>-10656.52631248506</v>
       </c>
       <c r="K6" t="n">
-        <v>206909.414010228</v>
+        <v>206874.6760847924</v>
       </c>
       <c r="L6" t="n">
-        <v>206909.4140102282</v>
+        <v>206874.6760847923</v>
       </c>
       <c r="M6" t="n">
-        <v>121854.3860747161</v>
+        <v>121819.6481492804</v>
       </c>
       <c r="N6" t="n">
-        <v>206909.4140102281</v>
+        <v>206874.6760847921</v>
       </c>
       <c r="O6" t="n">
-        <v>206909.414010228</v>
+        <v>206874.6760847922</v>
       </c>
       <c r="P6" t="n">
-        <v>206909.4140102277</v>
+        <v>206874.6760847925</v>
       </c>
     </row>
   </sheetData>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26811,16 +26811,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="K4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>268.5948491633308</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>76.90892488169493</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27555,7 +27555,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27591,19 +27591,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>137.1238099094098</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>113.0913093320068</v>
+        <v>57.23830939228776</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27749,7 +27749,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,16 +27783,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>4.963667715155538</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>59.80894728422944</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>199.0728117100761</v>
       </c>
       <c r="U8" t="n">
-        <v>32.12032840821877</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107.7439527351651</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28068,7 +28068,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>7.859829894972677</v>
       </c>
     </row>
     <row r="11">
@@ -28248,7 +28248,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -28485,7 +28485,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-5.621818412198717e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -28737,7 +28737,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -28801,10 +28801,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-3.916515846374476e-13</v>
       </c>
       <c r="D20" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -28962,7 +28962,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>3.582082778545252e-12</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31601,10 +31601,10 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138795</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,34 +31838,34 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319844</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338196</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862124</v>
@@ -32090,10 +32090,10 @@
         <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>156.3072281639541</v>
       </c>
       <c r="Q15" t="n">
         <v>375.5996128485291</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,25 +32312,25 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>437.8531046913755</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,7 +32339,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32503,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32552,19 +32552,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,7 +32576,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32643,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L24" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565744</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,7 +32813,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796262</v>
@@ -32871,31 +32871,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U25" t="n">
         <v>0.1345549672467222</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -32977,7 +32977,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33026,19 +33026,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33050,7 +33050,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796262</v>
@@ -33117,7 +33117,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33214,7 +33214,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33260,25 +33260,25 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>189.0011860882997</v>
+        <v>465.7451325200299</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,7 +33287,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33354,7 +33354,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159405</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>197.6412480909884</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>189.0011860883002</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.410447117911</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159405</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622667</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34445,31 +34445,31 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340053</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875399</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>25.7309431539454</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
         <v>603.412613764194</v>
@@ -35738,10 +35738,10 @@
         <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>22.33282074962379</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625076</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>303.8786972770453</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>200.7949786802851</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L24" t="n">
-        <v>200.7949786802851</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.95065951213</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>303.8786972770457</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
         <v>264.332588409635</v>
@@ -36762,7 +36762,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060455</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>57.65947400496642</v>
+        <v>334.4034204366966</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
         <v>264.332588409635</v>
@@ -36999,7 +36999,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060455</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193496</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>57.65947400496688</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>57.65947400496688</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394708</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193496</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402485</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
